--- a/DoAnCuoiKy/in_tourist.xlsx
+++ b/DoAnCuoiKy/in_tourist.xlsx
@@ -797,7 +797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1643,11 +1645,11 @@
       <c r="M18" t="s">
         <v>64</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
         <v>127</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1690,11 +1692,11 @@
       <c r="M19" t="s">
         <v>81</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>132</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1737,11 +1739,11 @@
       <c r="M20" t="s">
         <v>61</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>137</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
